--- a/public/img/productosweb/producto_face.xlsx
+++ b/public/img/productosweb/producto_face.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\practica_git\imagenes\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\almagrid\public\img\productosweb\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="438" uniqueCount="147">
   <si>
     <t>Paleta Glitter</t>
   </si>
@@ -502,6 +502,9 @@
   </si>
   <si>
     <t>73.jpg</t>
+  </si>
+  <si>
+    <t>21.jpg</t>
   </si>
 </sst>
 </file>
@@ -826,8 +829,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J73"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A56" workbookViewId="0">
-      <selection activeCell="F72" sqref="F72"/>
+    <sheetView tabSelected="1" topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="D36" sqref="A36:D55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1498,7 +1501,7 @@
         <v>0</v>
       </c>
       <c r="F21" t="s">
-        <v>76</v>
+        <v>146</v>
       </c>
       <c r="G21" t="s">
         <v>2</v>
@@ -1530,7 +1533,7 @@
         <v>0</v>
       </c>
       <c r="F22" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="G22" t="s">
         <v>2</v>
@@ -1562,7 +1565,7 @@
         <v>0</v>
       </c>
       <c r="F23" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="G23" t="s">
         <v>2</v>
@@ -1594,7 +1597,7 @@
         <v>0</v>
       </c>
       <c r="F24" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="G24" t="s">
         <v>2</v>
@@ -1626,7 +1629,7 @@
         <v>0</v>
       </c>
       <c r="F25" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="G25" t="s">
         <v>2</v>
